--- a/P0028/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0028/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0028\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24FA8E-C9CA-442A-8DAF-880C16ADE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9D24FA8E-C9CA-442A-8DAF-880C16ADE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B53930-21C7-41E1-83B7-3BC5A2998BEB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24810" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,149 +38,149 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0028</t>
+  </si>
+  <si>
     <t>PR0001</t>
   </si>
   <si>
+    <t>Entregable 1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0028/02_PRODUCTOS/Entregable 1/</t>
+  </si>
+  <si>
+    <t>EVOLUTION SERVICES &amp; CONSULTING S.A.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Este documento presenta el Plan de trabajo y la metodología que usará EVOLUTION para cumplir el objeto del proyecto asociado al contrato 287 de 2013. El documento contiene el objeto del contrato, la descripción general del plan de trabajo, la metodología con sus fases y actividades relacionadas a cada fase, el cronograma y los recursos que se necesitan para llevar a cabo el plan de trabajo.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Este documento es el primer entregable de EVOLUTION frente al contrato a ejecutar. Presenta el plan de trabajo, el conograma, la metodología junto con las actividades y los recursos necesarios para ejecutar el proyecto. El documento se divide en 5. Un primer capitulo de introducción que presenta el objeto del contrato, un glosario que está en anexos y temas preliminares. Un segundo capítulo que menciona de nuevo el objeto del proyecto. Un tercer capítulo que describe de manera general el plan de trabajo que tiene como objetivo realizar el diagnóstico predial y de tenencia de la tierra de 11 municipios de la Mojana, con el fin de obtener la información de cada predio para la actualización de valores comerciales de las zonas geoeconómicas objeto de intervención. Un cuarto capitulo que presenta consideraciones generales sobre puntos a tener en cuenta, reuniones, actas, documentos soportes, entregables, etc. Y por último, el quinto capítulo más extenso que desarrolla la metdología basada en la división del proyecto en 9 fases, cada una de las cuales contiene actividades detalladas. Dentro de este último capítulo se contemplan los recursos que se necesitan para llevar a cabo el proyecto, tanto personal requerido, cmo recursos técnicos, físicos y financieros. También se detalla el cronograna, el manejo de la información y el plan de comunicaciones.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>En el documento</t>
+  </si>
+  <si>
+    <t>este documento se encuentra repetido, la carpeta con todos los entregables se encuentra en el P0011</t>
+  </si>
+  <si>
+    <t>Diagnóstico predial, información cartográfica, registro predial, catastro, zonas geoeconómicas.</t>
+  </si>
+  <si>
     <t>PR0002</t>
   </si>
   <si>
+    <t>Entregable 2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0028/02_PRODUCTOS/Entregable 2/</t>
+  </si>
+  <si>
+    <t>El entregable 2 consiste en una Base de Datos geográfica que contiene la información predial de la región de la Mojana, complementada con información alfanumérica asociada a cada predio, la cual contiene información acerca del tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas.</t>
+  </si>
+  <si>
+    <t>El objetivo del presente entregable es generar “La base de datos geográfica con información predial que incluya el tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas, entre otras” para la región de la Mojana.</t>
+  </si>
+  <si>
+    <t>Páginas 63 a 498 del documento</t>
+  </si>
+  <si>
+    <t>Información predial, tipos de tenencia, relación jurídico-catastral, Información alfanumérica, Información geográfica</t>
+  </si>
+  <si>
     <t>PR0003</t>
   </si>
   <si>
+    <t>Planos y mapas</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0028/03_OTROS/Planos y mapas/</t>
+  </si>
+  <si>
+    <t>Planos y mapas escaneados de los 11 municipios de la mojana</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>CODIGO DE PROYECTO</t>
-  </si>
-  <si>
-    <t>CODIGO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t>DIRECTORIO</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>AUTOR 1</t>
-  </si>
-  <si>
-    <t>AUTOR 2</t>
-  </si>
-  <si>
-    <t>AUTOR 3</t>
-  </si>
-  <si>
-    <t>AUTOR 4</t>
-  </si>
-  <si>
-    <t>AUTOR 5</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>TIPO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>FORMATO</t>
-  </si>
-  <si>
-    <t>RESUMEN</t>
-  </si>
-  <si>
-    <t>CONTIENE ANEXOS</t>
-  </si>
-  <si>
-    <t>ANEXOS</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>PALABRAS CLAVE</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>P0028</t>
-  </si>
-  <si>
-    <t>Entregable 1</t>
-  </si>
-  <si>
-    <t>EVOLUTION SERVICES &amp; CONSULTING S.A.</t>
-  </si>
-  <si>
-    <t>Este documento presenta el Plan de trabajo y la metodología que usará EVOLUTION para cumplir el objeto del proyecto asociado al contrato 287 de 2013. El documento contiene el objeto del contrato, la descripción general del plan de trabajo, la metodología con sus fases y actividades relacionadas a cada fase, el cronograma y los recursos que se necesitan para llevar a cabo el plan de trabajo.</t>
-  </si>
-  <si>
-    <t>Informe</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>Este documento es el primer entregable de EVOLUTION frente al contrato a ejecutar. Presenta el plan de trabajo, el conograma, la metodología junto con las actividades y los recursos necesarios para ejecutar el proyecto. El documento se divide en 5. Un primer capitulo de introducción que presenta el objeto del contrato, un glosario que está en anexos y temas preliminares. Un segundo capítulo que menciona de nuevo el objeto del proyecto. Un tercer capítulo que describe de manera general el plan de trabajo que tiene como objetivo realizar el diagnóstico predial y de tenencia de la tierra de 11 municipios de la Mojana, con el fin de obtener la información de cada predio para la actualización de valores comerciales de las zonas geoeconómicas objeto de intervención. Un cuarto capitulo que presenta consideraciones generales sobre puntos a tener en cuenta, reuniones, actas, documentos soportes, entregables, etc. Y por último, el quinto capítulo más extenso que desarrolla la metdología basada en la división del proyecto en 9 fases, cada una de las cuales contiene actividades detalladas. Dentro de este último capítulo se contemplan los recursos que se necesitan para llevar a cabo el proyecto, tanto personal requerido, cmo recursos técnicos, físicos y financieros. También se detalla el cronograna, el manejo de la información y el plan de comunicaciones.</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>En el documento</t>
-  </si>
-  <si>
-    <t>este documento se encuentra repetido, la carpeta con todos los entregables se encuentra en el P0011</t>
-  </si>
-  <si>
-    <t>Diagnóstico predial, información cartográfica, registro predial, catastro, zonas geoeconómicas.</t>
-  </si>
-  <si>
-    <t>Entregable 2</t>
-  </si>
-  <si>
-    <t>El entregable 2 consiste en una Base de Datos geográfica que contiene la información predial de la región de la Mojana, complementada con información alfanumérica asociada a cada predio, la cual contiene información acerca del tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas.</t>
-  </si>
-  <si>
-    <t>El objetivo del presente entregable es generar “La base de datos geográfica con información predial que incluya el tipo de tenencia, la identificación del predio, el nombre del propietario (s) actual (es), la relación jurídico-catastral, el área registrada según folio, el área registrada según catastro, la nomenclatura o identificación del predio, y las afectaciones jurídicas, entre otras” para la región de la Mojana.</t>
-  </si>
-  <si>
-    <t>Páginas 63 a 498 del documento</t>
-  </si>
-  <si>
-    <t>Información predial, tipos de tenencia, relación jurídico-catastral, Información alfanumérica, Información geográfica</t>
-  </si>
-  <si>
-    <t>Planos y mapas</t>
-  </si>
-  <si>
-    <t>Planos y mapas escaneados de los 11 municipios de la mojana</t>
-  </si>
-  <si>
     <t>el documento no cuenta con información de autores, portada, o algun tipo de descripción, solo son los planos y mapas de la mojana escaneados</t>
   </si>
   <si>
     <t>Información cartográfica, planos, La Mojana, Nechí, Achí, Magangué, Ayapel, San Marcos, Majagual, Sucre sucre.</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0028/02_PRODUCTOS/Entregable 1/</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0028/02_PRODUCTOS/Entregable 2/</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0028/03_OTROS/Planos y mapas/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,12 +211,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,16 +515,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -520,228 +536,228 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2">
-        <v>2014</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3">
-        <v>2014</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="R4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -904,27 +920,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0028/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0028/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0028\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9D24FA8E-C9CA-442A-8DAF-880C16ADE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64B53930-21C7-41E1-83B7-3BC5A2998BEB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9D24FA8E-C9CA-442A-8DAF-880C16ADE817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A0F585-AA5E-4F9C-BE28-3DA509DB8055}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24810" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -230,9 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +524,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="A1:R4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -592,171 +600,171 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>2014</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" s="3" customFormat="1">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2014</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -767,15 +775,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -919,10 +918,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>